--- a/Program/Other/URS會議審查紀錄/MappingBooks/MappingBook_L1-顧客管理作業.xlsx
+++ b/Program/Other/URS會議審查紀錄/MappingBooks/MappingBook_L1-顧客管理作業.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\MappingBooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangwei_tool\Config\DatabaseCompare\MappingBooks\11月穩定版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A09DBCE-6C26-47E9-B6F0-379C99209805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目錄" sheetId="1" r:id="rId1"/>
@@ -24,16 +23,7 @@
     <sheet name="CustNotice" sheetId="9" r:id="rId9"/>
     <sheet name="CustTelNo" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -888,17 +878,6 @@
     <t>"LA$CFSP"."CFSADT"</t>
   </si>
   <si>
-    <t xml:space="preserve">FROM "CU$CUSP" CUSP
- LEFT JOIN "CU$CUAP" CUAP ON CUAP."CUSID1" = CUSP."CUSID1"
- LEFT JOIN "LN$ENPP" ENPP ON ENPP."LMSACN" = CUSP."LMSACN"
- AND CUSP."LMSACN" &gt; 0
- LEFT JOIN (SELECT "LMSACN"
- ,MAX("LMSAPN") AS "LastLMSAPN" FROM "LA$APLP"
- GROUP BY "LMSACN"
- ) APLP ON APLP."LMSACN" = CUSP."LMSACN"
- </t>
-  </si>
-  <si>
     <t>SYS_GUID()</t>
   </si>
   <si>
@@ -916,9 +895,6 @@
   <si>
     <t xml:space="preserve">10
 </t>
-  </si>
-  <si>
-    <t>REPLACE(TRIM("CUSP"."CUSID1"), CHR(26), '')</t>
   </si>
   <si>
     <t>CustNo</t>
@@ -1017,9 +993,6 @@
   <si>
     <t xml:space="preserve">1
 </t>
-  </si>
-  <si>
-    <t>CASE WHEN TRIM(CUSP."CUSSEX") IN ('1','2') THEN TRIM("CUSP"."CUSSEX") ELSE TRIM("CUSP"."CUSSEX") END</t>
   </si>
   <si>
     <t>CustTypeCode</t>
@@ -1627,9 +1600,6 @@
   </si>
   <si>
     <t>ALWINQ</t>
-  </si>
-  <si>
-    <t>"CUSP"."ALWINQ"</t>
   </si>
   <si>
     <t>Email</t>
@@ -1984,11 +1954,49 @@
     <t>REPLACE("CUSP"."CUSNA2",'○','o')</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">CASE WHEN CUSP."ALWINQ" = 2 THEN 2 ELSE 1 END </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE
+             WHEN TRIM(CUSP."CUSSEX") IN ('1','2') THEN TRIM(CUSP."CUSSEX")
+             WHEN TRIM(CUSP."CUSSEX") IN ('0','6') THEN '0'
+           ELSE CASE
+                  WHEN LENGTHB(REPLACE(TRIM(CUSP."CUSID1"),CHR(26),'')) = 10
+                       AND SUBSTR(REPLACE(TRIM(CUSP."CUSID1"),CHR(26),''),0,1) IN ('1','2')
+                  THEN SUBSTR(REPLACE(TRIM(CUSP."CUSID1"),CHR(26),''),0,1)
+                ELSE '0'
+                END
+           END</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM "CU$CUSP" CUSP
+    LEFT JOIN "CU$CUAP" CUAP ON CUAP."CUSID1" = CUSP."CUSID1"
+    LEFT JOIN "LN$ENPP" ENPP ON ENPP."LMSACN" = CUSP."LMSACN"
+                       AND CUSP."LMSACN" &gt; 0
+    LEFT JOIN (SELECT "LMSACN"
+                     ,MAX("LMSAPN") AS "LastLMSAPN"
+               FROM "LA$APLP"
+               GROUP BY "LMSACN"
+              ) APLP ON APLP."LMSACN" = CUSP."LMSACN"
+ </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE
+             WHEN CUSP."LMSACN" = 601776
+             THEN 'A111111131'
+           ELSE REPLACE(TRIM(CUSP."CUSID1"),CHR(26),'')
+           END</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2056,8 +2064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -2090,7 +2097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2112,17 +2119,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2130,11 +2134,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCCECFF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2408,14 +2407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
@@ -2424,7 +2423,7 @@
     <col min="6" max="6" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2436,7 +2435,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2456,140 +2455,140 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="5" t="str">
         <f>HYPERLINK("#'BankRelationCompany'!A1","BankRelationCompany")</f>
         <v>BankRelationCompany</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="5" t="str">
         <f>HYPERLINK("#'BankRelationFamily'!A1","BankRelationFamily")</f>
         <v>BankRelationFamily</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="5" t="str">
         <f>HYPERLINK("#'BankRelationSelf'!A1","BankRelationSelf")</f>
         <v>BankRelationSelf</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="5" t="str">
         <f>HYPERLINK("#'BankRelationSuspected'!A1","BankRelationSuspected")</f>
         <v>BankRelationSuspected</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="5" t="str">
         <f>HYPERLINK("#'CustCross'!A1","CustCross")</f>
         <v>CustCross</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="5" t="str">
         <f>HYPERLINK("#'CustFin'!A1","CustFin")</f>
         <v>CustFin</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="5" t="str">
         <f>HYPERLINK("#'CustMain'!A1","CustMain")</f>
         <v>CustMain</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="5" t="str">
         <f>HYPERLINK("#'CustNotice'!A1","CustNotice")</f>
         <v>CustNotice</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="5" t="str">
         <f>HYPERLINK("#'CustTelNo'!A1","CustTelNo")</f>
         <v>CustTelNo</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2599,14 +2598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -2622,13 +2621,13 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -2642,35 +2641,35 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2717,15 +2716,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
@@ -2752,11 +2751,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2796,18 +2795,18 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
@@ -2817,13 +2816,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
@@ -2839,18 +2838,18 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>45</v>
@@ -2863,10 +2862,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
@@ -2882,18 +2881,18 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
@@ -2903,13 +2902,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
@@ -2925,18 +2924,18 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -2949,10 +2948,10 @@
         <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
@@ -2968,18 +2967,18 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
@@ -2989,7 +2988,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>35</v>
@@ -3006,19 +3005,19 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="234" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -3028,7 +3027,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>35</v>
@@ -3046,18 +3045,18 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -3070,10 +3069,10 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
@@ -3089,15 +3088,15 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -3127,19 +3126,19 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -3166,19 +3165,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
@@ -3188,7 +3187,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>35</v>
@@ -3205,11 +3204,11 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3238,7 +3237,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3269,7 +3268,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3298,7 +3297,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3341,14 +3340,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -3364,11 +3361,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3384,11 +3381,11 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3399,18 +3396,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -3457,7 +3454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3500,7 +3497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3672,7 +3669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3758,7 +3755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3801,7 +3798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3830,7 +3827,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3861,7 +3858,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3890,7 +3887,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3933,12 +3930,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -3954,11 +3951,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
@@ -3974,11 +3971,11 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
@@ -3989,18 +3986,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -4047,7 +4044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4133,7 +4130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4176,7 +4173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4219,7 +4216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4305,7 +4302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4348,7 +4345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4391,7 +4388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4420,7 +4417,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4451,7 +4448,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4480,7 +4477,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4523,12 +4520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -4544,11 +4541,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
@@ -4564,11 +4561,11 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
@@ -4579,18 +4576,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -4637,7 +4634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4680,7 +4677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4723,7 +4720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4809,7 +4806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4895,7 +4892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4967,7 +4964,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4998,7 +4995,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5027,7 +5024,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5070,14 +5067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -5093,11 +5088,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
@@ -5113,11 +5108,11 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
@@ -5128,18 +5123,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -5186,7 +5181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5229,7 +5224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5272,7 +5267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5315,7 +5310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5358,7 +5353,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5387,7 +5382,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5418,7 +5413,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5447,7 +5442,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5490,12 +5485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -5511,11 +5506,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
@@ -5531,11 +5526,11 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>105</v>
       </c>
@@ -5546,11 +5541,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
@@ -5559,7 +5554,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -5606,7 +5601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5649,7 +5644,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5688,7 +5683,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5727,7 +5722,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5756,7 +5751,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5787,7 +5782,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5816,7 +5811,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5859,12 +5854,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -5880,11 +5875,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
@@ -5900,11 +5895,11 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>123</v>
       </c>
@@ -5915,11 +5910,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
@@ -5928,7 +5923,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -5975,7 +5970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6018,7 +6013,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6061,7 +6056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6151,7 +6146,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6196,7 +6191,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6241,7 +6236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6286,7 +6281,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6331,7 +6326,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -6376,7 +6371,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -6421,7 +6416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -6466,7 +6461,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -6511,7 +6506,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6556,7 +6551,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -6601,7 +6596,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6646,7 +6641,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -6691,7 +6686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -6736,7 +6731,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -6781,7 +6776,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6826,7 +6821,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -6871,7 +6866,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -6916,7 +6911,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -6961,7 +6956,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -7006,7 +7001,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -7051,7 +7046,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -7096,7 +7091,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -7141,7 +7136,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -7186,7 +7181,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -7229,7 +7224,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -7272,7 +7267,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -7301,7 +7296,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -7332,7 +7327,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -7361,7 +7356,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -7404,14 +7399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -7427,11 +7422,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
@@ -7447,33 +7442,33 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
-        <v>253</v>
+        <v>579</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -7520,7 +7515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7555,10 +7550,10 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -7566,7 +7561,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>45</v>
@@ -7579,37 +7574,37 @@
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>129</v>
@@ -7619,40 +7614,40 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>45</v>
@@ -7665,13 +7660,13 @@
         <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>132</v>
@@ -7684,10 +7679,10 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -7695,7 +7690,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
@@ -7708,40 +7703,40 @@
         <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -7751,13 +7746,13 @@
         <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>132</v>
@@ -7770,18 +7765,18 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="315" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
@@ -7791,40 +7786,40 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="202.8" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -7834,40 +7829,40 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
@@ -7877,40 +7872,40 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
@@ -7920,40 +7915,40 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
@@ -7963,7 +7958,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>35</v>
@@ -7980,19 +7975,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
@@ -8005,37 +8000,37 @@
         <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -8048,37 +8043,37 @@
         <v>35</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>45</v>
@@ -8091,37 +8086,37 @@
         <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>45</v>
@@ -8134,37 +8129,37 @@
         <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>45</v>
@@ -8174,7 +8169,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>35</v>
@@ -8191,19 +8186,19 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>45</v>
@@ -8213,7 +8208,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
@@ -8230,19 +8225,19 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -8261,19 +8256,19 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>45</v>
@@ -8300,19 +8295,19 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>45</v>
@@ -8339,19 +8334,19 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>45</v>
@@ -8378,19 +8373,19 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>45</v>
@@ -8417,19 +8412,19 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>45</v>
@@ -8456,19 +8451,19 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>45</v>
@@ -8495,19 +8490,19 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>45</v>
@@ -8534,19 +8529,19 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>45</v>
@@ -8559,37 +8554,37 @@
         <v>35</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>45</v>
@@ -8602,37 +8597,37 @@
         <v>35</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>45</v>
@@ -8642,7 +8637,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>35</v>
@@ -8659,19 +8654,19 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>45</v>
@@ -8681,7 +8676,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>35</v>
@@ -8698,19 +8693,19 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>38</v>
@@ -8729,19 +8724,19 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>45</v>
@@ -8768,19 +8763,19 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>45</v>
@@ -8807,19 +8802,19 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>45</v>
@@ -8846,19 +8841,19 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
@@ -8885,19 +8880,19 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>45</v>
@@ -8924,19 +8919,19 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>45</v>
@@ -8963,19 +8958,19 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>45</v>
@@ -9002,19 +8997,19 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>45</v>
@@ -9024,40 +9019,40 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="109.2" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -9067,40 +9062,40 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>45</v>
@@ -9110,40 +9105,40 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
@@ -9156,37 +9151,37 @@
         <v>35</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>45</v>
@@ -9196,40 +9191,40 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>45</v>
@@ -9239,40 +9234,40 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
@@ -9285,13 +9280,13 @@
         <v>35</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>243</v>
@@ -9304,18 +9299,18 @@
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>45</v>
@@ -9328,13 +9323,13 @@
         <v>35</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>132</v>
@@ -9347,18 +9342,18 @@
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>45</v>
@@ -9371,37 +9366,37 @@
         <v>35</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>38</v>
@@ -9414,37 +9409,37 @@
         <v>35</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>45</v>
@@ -9457,37 +9452,37 @@
         <v>35</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>129</v>
@@ -9500,37 +9495,37 @@
         <v>35</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>139</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>45</v>
@@ -9540,40 +9535,40 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>45</v>
@@ -9586,37 +9581,37 @@
         <v>35</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>45</v>
@@ -9629,37 +9624,37 @@
         <v>35</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>45</v>
@@ -9672,37 +9667,37 @@
         <v>35</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>38</v>
@@ -9729,19 +9724,19 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>129</v>
@@ -9754,37 +9749,37 @@
         <v>35</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>129</v>
@@ -9811,19 +9806,19 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>45</v>
@@ -9836,37 +9831,37 @@
         <v>35</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>45</v>
@@ -9879,37 +9874,37 @@
         <v>35</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>129</v>
@@ -9919,7 +9914,7 @@
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>35</v>
@@ -9936,19 +9931,19 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>45</v>
@@ -9958,40 +9953,40 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>45</v>
@@ -10001,7 +9996,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>35</v>
@@ -10018,19 +10013,19 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>45</v>
@@ -10040,7 +10035,7 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>35</v>
@@ -10057,19 +10052,19 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>45</v>
@@ -10079,7 +10074,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>35</v>
@@ -10096,19 +10091,19 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>129</v>
@@ -10118,7 +10113,7 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>35</v>
@@ -10135,19 +10130,19 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>129</v>
@@ -10157,7 +10152,7 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>35</v>
@@ -10174,11 +10169,11 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10207,7 +10202,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10238,7 +10233,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -10267,7 +10262,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -10311,14 +10306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -10334,13 +10329,13 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="405.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -10353,36 +10348,36 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="1" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -10429,15 +10424,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>129</v>
@@ -10450,37 +10445,37 @@
         <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>129</v>
@@ -10493,37 +10488,37 @@
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
@@ -10536,10 +10531,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
@@ -10555,18 +10550,18 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>45</v>
@@ -10576,7 +10571,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>35</v>
@@ -10593,19 +10588,19 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
@@ -10615,7 +10610,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -10632,19 +10627,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -10654,7 +10649,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>35</v>
@@ -10671,22 +10666,22 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -10710,11 +10705,11 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -10743,7 +10738,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -10774,7 +10769,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -10803,7 +10798,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
